--- a/ManualTestCases.xlsx
+++ b/ManualTestCases.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smedikonda\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7895BA4C-A202-4F7D-A41C-8636D95478A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -404,28 +413,42 @@
   <si>
     <t>Same as expected</t>
   </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Add a computer with all possible company dropdown values</t>
+  </si>
+  <si>
+    <t>company all dropdown values</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -447,81 +470,388 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.43"/>
-    <col customWidth="1" min="2" max="2" width="23.57"/>
-    <col customWidth="1" min="3" max="3" width="38.57"/>
-    <col customWidth="1" min="4" max="4" width="32.71"/>
-    <col customWidth="1" min="5" max="5" width="88.14"/>
-    <col customWidth="1" min="6" max="6" width="44.0"/>
-    <col customWidth="1" min="7" max="7" width="43.14"/>
-    <col customWidth="1" min="8" max="8" width="47.86"/>
-    <col customWidth="1" min="10" max="10" width="37.71"/>
-    <col customWidth="1" min="11" max="11" width="40.86"/>
-    <col customWidth="1" min="12" max="12" width="33.0"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="88.140625" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="98.25" customHeight="1">
+    <row r="2" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -595,7 +925,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="121.5" customHeight="1">
+    <row r="3" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -631,7 +961,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -667,7 +997,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -705,7 +1035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -743,7 +1073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -781,7 +1111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" ht="94.5" customHeight="1">
+    <row r="8" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -819,7 +1149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" ht="85.5" customHeight="1">
+    <row r="9" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
@@ -857,7 +1187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -891,7 +1221,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -925,7 +1255,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -959,7 +1289,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -993,7 +1323,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
@@ -1027,7 +1357,7 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>96</v>
       </c>
@@ -1063,7 +1393,42 @@
       </c>
       <c r="L15" s="5"/>
     </row>
+    <row r="16" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ManualTestCases.xlsx
+++ b/ManualTestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smedikonda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smedikonda\Documents\GitHub\BBAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7895BA4C-A202-4F7D-A41C-8636D95478A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65C63713-3406-42EC-B14E-241789F6EDA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,8 +832,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/ManualTestCases.xlsx
+++ b/ManualTestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smedikonda\Documents\GitHub\BBAssignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smedikonda\Documents\BBAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65C63713-3406-42EC-B14E-241789F6EDA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B4F97B7-AC84-4E80-8856-FD5D1E6E941F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="147">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -79,10 +79,6 @@
 7. Click on create this computer button.</t>
   </si>
   <si>
-    <t>Introduced Date: 2018-01-01
-Discontinued Date: 2018-12-01</t>
-  </si>
-  <si>
     <t>1 .Alert message "Done! Computer GivenName has been created" should be displayed post successful creation of computer.
 2. When searched for the computer by using Filter by computer name, a record should be retrived with the same details as given while creation.</t>
   </si>
@@ -114,12 +110,6 @@
 7. Click on create this computer button.</t>
   </si>
   <si>
-    <t>Introduced Date: 2018-01-32
-Discontinued Date: 2018-12-01
-Introduced Date: 01-01-2018
-Discontinued Date: 2018-12-01</t>
-  </si>
-  <si>
     <t>1. The introduced date label and text box should turn red indicating the entered date value is invalid.</t>
   </si>
   <si>
@@ -144,12 +134,6 @@
 7. Click on create this computer button.</t>
   </si>
   <si>
-    <t>Introduced Date: 2018-01-01
-Discontinued Date: 2018-12-32
-Introduced Date: 2018-01-01
-Discontinued Date: 01-01-2019</t>
-  </si>
-  <si>
     <t>1. The Discontinued date label and text box should turn red indicating the entered date value is invalid.</t>
   </si>
   <si>
@@ -174,10 +158,6 @@
 7. Click on create this computer button.</t>
   </si>
   <si>
-    <t>Introduced Date: 2018-01-01
-Discontinued Date: 2017-01-01</t>
-  </si>
-  <si>
     <t>1. The Discontinued date label and text box should turn red indicating the entered date value is invalid or any warning alert should be displayed.</t>
   </si>
   <si>
@@ -206,10 +186,6 @@
 7. Click on create this computer button.</t>
   </si>
   <si>
-    <t>Introduced Date: 2020-01-01
-Discontinued Date: 2017-01-01</t>
-  </si>
-  <si>
     <t>1. The Introduction date label and text box should turn red indicating the entered date value is invalid or warning alert should be displayed.</t>
   </si>
   <si>
@@ -217,10 +193,6 @@
   </si>
   <si>
     <t>Add a computer with future discontinued date</t>
-  </si>
-  <si>
-    <t>Introduced Date: 2017-01-01
-Discontinued Date: 2020-01-01</t>
   </si>
   <si>
     <t>TC7</t>
@@ -238,9 +210,6 @@
 7. Click on create this computer button.</t>
   </si>
   <si>
-    <t>Introduced Date : 0001-01-01, 9999-01-01,0000-01-01,10000-01-01</t>
-  </si>
-  <si>
     <t>createCompIntroDiscDateEdgeCasePos/createCompIntroDateEdgeCaseNeg</t>
   </si>
   <si>
@@ -262,9 +231,6 @@
 7. Click on create this computer button.</t>
   </si>
   <si>
-    <t>Discontinued Date : 0001-01-01, 9999-01-01,0000-01-01,10000-01-01</t>
-  </si>
-  <si>
     <t>createCompIntroDiscDateEdgeCasePos/createCompDiscDateEdgeCaseNeg</t>
   </si>
   <si>
@@ -421,6 +387,219 @@
   </si>
   <si>
     <t>company all dropdown values</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Add a computer with Introduction date as blank</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url http://computer-database.herokuapp.com/computers.
+2. Click on the Add a new computer button.
+3. Enter computer name(e.g. KAT).
+4. Don't enter anything in this field.
+5. Enter a valid discontinued date, should be after the introduced date(e.g. 2018-12-01).
+6. Choose a company from the company drop down.
+7. Click on create this computer button.</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Add a computer with Discontinued Date as blank</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url http://computer-database.herokuapp.com/computers.
+2. Click on the Add a new computer button.
+3. Enter computer name(e.g. KAT).
+4. Enter a valid Introduced date(e.g. 2018-01-01).
+5. Leave this field as blank.
+6. Choose a company from the company drop down.
+7. Click on create this computer button.</t>
+  </si>
+  <si>
+    <t>Introduction date: 2018-12-01
+Discontinued date: Blank</t>
+  </si>
+  <si>
+    <t>Introduction date: Blank
+Discontinued date:  2018-12-01</t>
+  </si>
+  <si>
+    <t>1. Alert should be displayed to say that introduction date is not entered</t>
+  </si>
+  <si>
+    <t>Computer is getting added, no error is shown</t>
+  </si>
+  <si>
+    <t>1. Alert should be displayed to say that discontinued date is not entered</t>
+  </si>
+  <si>
+    <t>ideally should throw error and not create the computer</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>Add a computer with both Introduced date and Discontinued Date as blank</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url http://computer-database.herokuapp.com/computers.
+2. Click on the Add a new computer button.
+3. Enter computer name(e.g. KAT).
+4.Keep it blank.
+5. Keep it blank
+6. Choose a company from the company drop down.
+7. Click on create this computer button.</t>
+  </si>
+  <si>
+    <t>Introduction date: Blank
+Discontinued date: Blank</t>
+  </si>
+  <si>
+    <t>1. Alert should be displayed saying both introduced date and discontinued date is not entered</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Add a computer with computer name as blank</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url http://computer-database.herokuapp.com/computers.
+2. Click on the Add a new computer button.
+3. Leave computer name field blank
+4. Enter a valid Introduced date(e.g. 2018-01-01).
+5. Enter a valid discontinued date, should be after the introduced date(e.g. 2018-12-01).
+6. Choose a company from the company drop down.
+7. Click on create this computer button.</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date: 2018-01-01
+Discontinued Date: 2018-12-01
+Company : sony</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date: 2018-01-32
+Discontinued Date: 2018-12-01
+company name: sony
+Computer Name: KAT
+Introduced Date: 01-01-2018
+Discontinued Date: 2018-12-01
+company name : sony</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date: 2018-01-01
+Discontinued Date: 2018-12-32
+Computer Name: KAT
+Introduced Date: 2018-01-01
+Discontinued Date: 01-01-2019</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date: 2018-01-01
+Discontinued Date: 2017-01-01</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date: 2020-01-01
+Discontinued Date: 2017-01-01</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date: 2017-01-01
+Discontinued Date: 2020-01-01</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date: 2018-01-01
+Discontinued Date : 0001-01-01, 9999-01-01,0000-01-01,10000-01-01</t>
+  </si>
+  <si>
+    <t>Computer Name: KAT
+Introduced Date : 0001-01-01, 9999-01-01,0000-01-01,10000-01-01
+Discontinued Date: 2018-01-01</t>
+  </si>
+  <si>
+    <t>New Introduced Date,
+New Discontinued Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Computer Name </t>
+  </si>
+  <si>
+    <t>New Company Name from the drop down</t>
+  </si>
+  <si>
+    <t>Computer Name: Blank
+Introduction date:2018-01-01
+Discontinued date: 2018-01-31</t>
+  </si>
+  <si>
+    <t>should throw and error</t>
+  </si>
+  <si>
+    <t>Alert is shown</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url http://computer-database.herokuapp.com/computers.
+2. Click on the Add a new computer button.
+3. Enter computer name AAAAAAAAAAAABBBBBBBCCCCCCCCCCC.
+4. Enter a valid Introduced date(e.g. 2018-01-01).
+5. Enter a valid discontinued date, should be after the introduced date(e.g. 2018-12-01).
+6. Choose a company from the company drop down.
+7. Click on create this computer button.</t>
+  </si>
+  <si>
+    <t>Add a computer with computer name LongString to check how many characters are allowed</t>
+  </si>
+  <si>
+    <t>Computer Name: AAAAAAAAAAAAAAAAAAAAAAAAAABBBBBBBBBBBBBBBBBBBBBBBBBBB
+Computer Name : JODSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDSDS</t>
+  </si>
+  <si>
+    <t>There should be a limit for number of charaters allowed</t>
+  </si>
+  <si>
+    <t>There is no limit</t>
+  </si>
+  <si>
+    <t>Ideally there should be a limit</t>
+  </si>
+  <si>
+    <t>Add a computer with computer name comtaining special characters</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url http://computer-database.herokuapp.com/computers.
+2. Click on the Add a new computer button.
+3. Enter computer name with special characters.
+4. Enter a valid Introduced date(e.g. 2018-01-01).
+5. Enter a valid discontinued date, should be after the introduced date(e.g. 2018-12-01).
+6. Choose a company from the company drop down.
+7. Click on create this computer button.</t>
+  </si>
+  <si>
+    <t>Computer Name: *#@#*$)@#*$)@$*@#)$@*)
+Computer Name : !@!)@()$()#@$(@#)@()$@#</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Special characters should not be allowed except some</t>
+  </si>
+  <si>
+    <t>Allowing all special charactes including + and -</t>
+  </si>
+  <si>
+    <t>Ideally should not allow spacial characters</t>
   </si>
 </sst>
 </file>
@@ -830,10 +1009,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,7 +1026,7 @@
     <col min="7" max="7" width="43.140625" customWidth="1"/>
     <col min="8" max="8" width="47.85546875" customWidth="1"/>
     <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="11" max="11" width="44.28515625" customWidth="1"/>
     <col min="12" max="12" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,502 +1085,514 @@
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1410,22 +1601,248 @@
         <v>16</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
+      <c r="J20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/ManualTestCases.xlsx
+++ b/ManualTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smedikonda\Documents\BBAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B4F97B7-AC84-4E80-8856-FD5D1E6E941F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D57A78E9-B8DF-4B5C-A79B-00E98259CCEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,10 +167,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">As the exact requirement is not known, 
-Failing this from common sense perspective </t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
@@ -600,6 +596,9 @@
   </si>
   <si>
     <t>Ideally should not allow spacial characters</t>
+  </si>
+  <si>
+    <t>Ideally this should throw an error</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1010,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -1121,7 +1120,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
@@ -1157,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>31</v>
@@ -1193,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>37</v>
@@ -1210,31 +1209,31 @@
       <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
+      <c r="L5" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>38</v>
@@ -1248,19 +1247,19 @@
       <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>40</v>
+      <c r="L6" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -1269,7 +1268,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>37</v>
@@ -1286,31 +1285,31 @@
       <c r="K7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>40</v>
+      <c r="L7" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>38</v>
@@ -1322,30 +1321,30 @@
         <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>37</v>
@@ -1360,36 +1359,36 @@
         <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>19</v>
@@ -1398,34 +1397,34 @@
         <v>20</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>19</v>
@@ -1434,165 +1433,165 @@
         <v>20</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="L14" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1601,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>17</v>
@@ -1622,227 +1621,227 @@
     </row>
     <row r="17" spans="1:12" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="G22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
